--- a/2-2. DB/수업자료(ppt_pdf)/데이터베이스 중간고사 객관식 답안지.xlsx
+++ b/2-2. DB/수업자료(ppt_pdf)/데이터베이스 중간고사 객관식 답안지.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\202101 재택수업\데이터베이스\8주차-중간고사\객관식 문제\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\School_datas\2-2. DB\수업자료(ppt_pdf)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62368FC-6616-446A-B643-CA9C7EB87491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD42408-9F89-4B62-A762-2C49ECEB2944}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="195" windowWidth="24780" windowHeight="20505" xr2:uid="{CB2DF08A-81B1-4C6B-AA5D-9E471F8E401C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB2DF08A-81B1-4C6B-AA5D-9E471F8E401C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,18 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 반: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 학번 : </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 이름 :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* 해당 답란에 1 을 입력하시오.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,12 +71,63 @@
     <t>데이터베이스 중간고사 객관식 답안지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 반: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 학번 : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>201844050</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 이름 :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>박승민</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +225,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="고도 M"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -1047,55 +1103,55 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="5" width="18.625" style="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="46.5" customHeight="1" thickBot="1">
       <c r="A1" s="65" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
       <c r="E1" s="65"/>
     </row>
-    <row r="2" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="36" customHeight="1" thickBot="1">
       <c r="A2" s="17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="66" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" s="67"/>
     </row>
-    <row r="3" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="38.25" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="48.75" customHeight="1" thickBot="1">
       <c r="A4" s="63" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="64"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="24" customHeight="1" thickBot="1">
       <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="24" customHeight="1">
       <c r="A6" s="24">
         <v>1</v>
       </c>
@@ -1121,7 +1177,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="24" customHeight="1">
       <c r="A7" s="29">
         <v>2</v>
       </c>
@@ -1130,7 +1186,7 @@
       <c r="D7" s="32"/>
       <c r="E7" s="33"/>
     </row>
-    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="24" customHeight="1">
       <c r="A8" s="34">
         <v>3</v>
       </c>
@@ -1139,7 +1195,7 @@
       <c r="D8" s="37"/>
       <c r="E8" s="38"/>
     </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="24" customHeight="1">
       <c r="A9" s="34">
         <v>4</v>
       </c>
@@ -1148,7 +1204,7 @@
       <c r="D9" s="37"/>
       <c r="E9" s="38"/>
     </row>
-    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="24" customHeight="1">
       <c r="A10" s="29">
         <v>5</v>
       </c>
@@ -1157,7 +1213,7 @@
       <c r="D10" s="32"/>
       <c r="E10" s="33"/>
     </row>
-    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="24" customHeight="1">
       <c r="A11" s="29">
         <v>6</v>
       </c>
@@ -1166,7 +1222,7 @@
       <c r="D11" s="32"/>
       <c r="E11" s="33"/>
     </row>
-    <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="24" customHeight="1">
       <c r="A12" s="34">
         <v>7</v>
       </c>
@@ -1175,7 +1231,7 @@
       <c r="D12" s="37"/>
       <c r="E12" s="38"/>
     </row>
-    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="24" customHeight="1">
       <c r="A13" s="34">
         <v>8</v>
       </c>
@@ -1184,7 +1240,7 @@
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
     </row>
-    <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="24" customHeight="1">
       <c r="A14" s="29">
         <v>9</v>
       </c>
@@ -1193,7 +1249,7 @@
       <c r="D14" s="32"/>
       <c r="E14" s="33"/>
     </row>
-    <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="24" customHeight="1">
       <c r="A15" s="29">
         <v>10</v>
       </c>
@@ -1202,7 +1258,7 @@
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
     </row>
-    <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="24" customHeight="1">
       <c r="A16" s="34">
         <v>11</v>
       </c>
@@ -1211,7 +1267,7 @@
       <c r="D16" s="41"/>
       <c r="E16" s="42"/>
     </row>
-    <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="24" customHeight="1">
       <c r="A17" s="34">
         <v>12</v>
       </c>
@@ -1220,7 +1276,7 @@
       <c r="D17" s="41"/>
       <c r="E17" s="42"/>
     </row>
-    <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="24" customHeight="1">
       <c r="A18" s="29">
         <v>13</v>
       </c>
@@ -1229,7 +1285,7 @@
       <c r="D18" s="45"/>
       <c r="E18" s="46"/>
     </row>
-    <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="24" customHeight="1">
       <c r="A19" s="29">
         <v>14</v>
       </c>
@@ -1238,7 +1294,7 @@
       <c r="D19" s="45"/>
       <c r="E19" s="46"/>
     </row>
-    <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="24" customHeight="1">
       <c r="A20" s="34">
         <v>15</v>
       </c>
@@ -1247,7 +1303,7 @@
       <c r="D20" s="41"/>
       <c r="E20" s="42"/>
     </row>
-    <row r="21" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="24" customHeight="1">
       <c r="A21" s="34">
         <v>16</v>
       </c>
@@ -1256,7 +1312,7 @@
       <c r="D21" s="41"/>
       <c r="E21" s="42"/>
     </row>
-    <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="24" customHeight="1">
       <c r="A22" s="29">
         <v>17</v>
       </c>
@@ -1265,7 +1321,7 @@
       <c r="D22" s="45"/>
       <c r="E22" s="46"/>
     </row>
-    <row r="23" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="24" customHeight="1">
       <c r="A23" s="29">
         <v>18</v>
       </c>
@@ -1274,7 +1330,7 @@
       <c r="D23" s="45"/>
       <c r="E23" s="46"/>
     </row>
-    <row r="24" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="24" customHeight="1">
       <c r="A24" s="34">
         <v>19</v>
       </c>
@@ -1283,7 +1339,7 @@
       <c r="D24" s="41"/>
       <c r="E24" s="42"/>
     </row>
-    <row r="25" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="24" customHeight="1">
       <c r="A25" s="34">
         <v>20</v>
       </c>
@@ -1292,7 +1348,7 @@
       <c r="D25" s="41"/>
       <c r="E25" s="42"/>
     </row>
-    <row r="26" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="24" customHeight="1">
       <c r="A26" s="29">
         <v>21</v>
       </c>
@@ -1301,7 +1357,7 @@
       <c r="D26" s="45"/>
       <c r="E26" s="46"/>
     </row>
-    <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="24" customHeight="1">
       <c r="A27" s="29">
         <v>22</v>
       </c>
@@ -1310,7 +1366,7 @@
       <c r="D27" s="45"/>
       <c r="E27" s="46"/>
     </row>
-    <row r="28" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="24" customHeight="1">
       <c r="A28" s="34">
         <v>23</v>
       </c>
@@ -1319,7 +1375,7 @@
       <c r="D28" s="41"/>
       <c r="E28" s="42"/>
     </row>
-    <row r="29" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="24" customHeight="1">
       <c r="A29" s="34">
         <v>24</v>
       </c>
@@ -1328,7 +1384,7 @@
       <c r="D29" s="41"/>
       <c r="E29" s="42"/>
     </row>
-    <row r="30" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="24" customHeight="1">
       <c r="A30" s="29">
         <v>25</v>
       </c>
@@ -1337,7 +1393,7 @@
       <c r="D30" s="45"/>
       <c r="E30" s="46"/>
     </row>
-    <row r="31" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="24" customHeight="1">
       <c r="A31" s="29">
         <v>26</v>
       </c>
@@ -1346,7 +1402,7 @@
       <c r="D31" s="45"/>
       <c r="E31" s="46"/>
     </row>
-    <row r="32" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="24" customHeight="1">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -1355,7 +1411,7 @@
       <c r="D32" s="41"/>
       <c r="E32" s="42"/>
     </row>
-    <row r="33" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="24" customHeight="1">
       <c r="A33" s="34">
         <v>28</v>
       </c>
@@ -1364,7 +1420,7 @@
       <c r="D33" s="41"/>
       <c r="E33" s="42"/>
     </row>
-    <row r="34" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="24" customHeight="1">
       <c r="A34" s="29">
         <v>29</v>
       </c>
@@ -1373,7 +1429,7 @@
       <c r="D34" s="45"/>
       <c r="E34" s="46"/>
     </row>
-    <row r="35" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="24" customHeight="1">
       <c r="A35" s="29">
         <v>30</v>
       </c>
@@ -1382,7 +1438,7 @@
       <c r="D35" s="45"/>
       <c r="E35" s="46"/>
     </row>
-    <row r="36" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="24" customHeight="1">
       <c r="A36" s="34">
         <v>31</v>
       </c>
@@ -1391,7 +1447,7 @@
       <c r="D36" s="41"/>
       <c r="E36" s="42"/>
     </row>
-    <row r="37" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="24" customHeight="1">
       <c r="A37" s="34">
         <v>32</v>
       </c>
@@ -1400,7 +1456,7 @@
       <c r="D37" s="41"/>
       <c r="E37" s="42"/>
     </row>
-    <row r="38" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="24" customHeight="1">
       <c r="A38" s="29">
         <v>33</v>
       </c>
@@ -1409,7 +1465,7 @@
       <c r="D38" s="45"/>
       <c r="E38" s="46"/>
     </row>
-    <row r="39" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="24" customHeight="1">
       <c r="A39" s="29">
         <v>34</v>
       </c>
@@ -1418,7 +1474,7 @@
       <c r="D39" s="45"/>
       <c r="E39" s="46"/>
     </row>
-    <row r="40" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="24" customHeight="1">
       <c r="A40" s="34">
         <v>35</v>
       </c>
@@ -1427,7 +1483,7 @@
       <c r="D40" s="41"/>
       <c r="E40" s="42"/>
     </row>
-    <row r="41" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="24" customHeight="1">
       <c r="A41" s="34">
         <v>36</v>
       </c>
@@ -1436,7 +1492,7 @@
       <c r="D41" s="41"/>
       <c r="E41" s="42"/>
     </row>
-    <row r="42" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="24" customHeight="1">
       <c r="A42" s="29">
         <v>37</v>
       </c>
@@ -1445,7 +1501,7 @@
       <c r="D42" s="45"/>
       <c r="E42" s="46"/>
     </row>
-    <row r="43" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="24" customHeight="1">
       <c r="A43" s="29">
         <v>38</v>
       </c>
@@ -1454,7 +1510,7 @@
       <c r="D43" s="45"/>
       <c r="E43" s="46"/>
     </row>
-    <row r="44" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="24" customHeight="1">
       <c r="A44" s="34">
         <v>39</v>
       </c>
@@ -1463,7 +1519,7 @@
       <c r="D44" s="41"/>
       <c r="E44" s="42"/>
     </row>
-    <row r="45" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="24" customHeight="1">
       <c r="A45" s="34">
         <v>40</v>
       </c>
@@ -1472,7 +1528,7 @@
       <c r="D45" s="41"/>
       <c r="E45" s="42"/>
     </row>
-    <row r="46" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="24" customHeight="1">
       <c r="A46" s="29">
         <v>41</v>
       </c>
@@ -1481,7 +1537,7 @@
       <c r="D46" s="45"/>
       <c r="E46" s="46"/>
     </row>
-    <row r="47" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="24" customHeight="1">
       <c r="A47" s="29">
         <v>42</v>
       </c>
@@ -1490,7 +1546,7 @@
       <c r="D47" s="45"/>
       <c r="E47" s="46"/>
     </row>
-    <row r="48" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="24" customHeight="1">
       <c r="A48" s="34">
         <v>43</v>
       </c>
@@ -1499,7 +1555,7 @@
       <c r="D48" s="41"/>
       <c r="E48" s="42"/>
     </row>
-    <row r="49" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="24" customHeight="1">
       <c r="A49" s="34">
         <v>44</v>
       </c>
@@ -1508,7 +1564,7 @@
       <c r="D49" s="41"/>
       <c r="E49" s="42"/>
     </row>
-    <row r="50" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="24" customHeight="1">
       <c r="A50" s="29">
         <v>45</v>
       </c>
@@ -1517,7 +1573,7 @@
       <c r="D50" s="45"/>
       <c r="E50" s="46"/>
     </row>
-    <row r="51" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="24" customHeight="1">
       <c r="A51" s="29">
         <v>46</v>
       </c>
@@ -1526,7 +1582,7 @@
       <c r="D51" s="45"/>
       <c r="E51" s="46"/>
     </row>
-    <row r="52" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="24" customHeight="1">
       <c r="A52" s="34">
         <v>47</v>
       </c>
@@ -1535,7 +1591,7 @@
       <c r="D52" s="41"/>
       <c r="E52" s="42"/>
     </row>
-    <row r="53" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="24" customHeight="1">
       <c r="A53" s="34">
         <v>48</v>
       </c>
@@ -1544,7 +1600,7 @@
       <c r="D53" s="41"/>
       <c r="E53" s="42"/>
     </row>
-    <row r="54" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="24" customHeight="1">
       <c r="A54" s="29">
         <v>49</v>
       </c>
@@ -1553,7 +1609,7 @@
       <c r="D54" s="45"/>
       <c r="E54" s="46"/>
     </row>
-    <row r="55" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="24" customHeight="1">
       <c r="A55" s="29">
         <v>50</v>
       </c>
@@ -1562,7 +1618,7 @@
       <c r="D55" s="45"/>
       <c r="E55" s="46"/>
     </row>
-    <row r="56" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="24" customHeight="1">
       <c r="A56" s="34">
         <v>51</v>
       </c>
@@ -1571,7 +1627,7 @@
       <c r="D56" s="41"/>
       <c r="E56" s="42"/>
     </row>
-    <row r="57" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="24" customHeight="1">
       <c r="A57" s="34">
         <v>52</v>
       </c>
@@ -1580,7 +1636,7 @@
       <c r="D57" s="41"/>
       <c r="E57" s="42"/>
     </row>
-    <row r="58" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="24" customHeight="1">
       <c r="A58" s="29">
         <v>53</v>
       </c>
@@ -1589,7 +1645,7 @@
       <c r="D58" s="45"/>
       <c r="E58" s="46"/>
     </row>
-    <row r="59" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="24" customHeight="1">
       <c r="A59" s="29">
         <v>54</v>
       </c>
@@ -1598,7 +1654,7 @@
       <c r="D59" s="45"/>
       <c r="E59" s="46"/>
     </row>
-    <row r="60" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="24" customHeight="1">
       <c r="A60" s="34">
         <v>55</v>
       </c>
@@ -1607,7 +1663,7 @@
       <c r="D60" s="41"/>
       <c r="E60" s="42"/>
     </row>
-    <row r="61" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="24" customHeight="1">
       <c r="A61" s="34">
         <v>56</v>
       </c>
@@ -1616,7 +1672,7 @@
       <c r="D61" s="41"/>
       <c r="E61" s="42"/>
     </row>
-    <row r="62" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="24" customHeight="1">
       <c r="A62" s="29">
         <v>57</v>
       </c>
@@ -1625,7 +1681,7 @@
       <c r="D62" s="45"/>
       <c r="E62" s="46"/>
     </row>
-    <row r="63" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="24" customHeight="1">
       <c r="A63" s="29">
         <v>58</v>
       </c>
@@ -1634,7 +1690,7 @@
       <c r="D63" s="45"/>
       <c r="E63" s="46"/>
     </row>
-    <row r="64" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="24" customHeight="1">
       <c r="A64" s="34">
         <v>59</v>
       </c>
@@ -1643,7 +1699,7 @@
       <c r="D64" s="41"/>
       <c r="E64" s="42"/>
     </row>
-    <row r="65" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="24" customHeight="1">
       <c r="A65" s="34">
         <v>60</v>
       </c>
@@ -1652,7 +1708,7 @@
       <c r="D65" s="41"/>
       <c r="E65" s="42"/>
     </row>
-    <row r="66" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="24" customHeight="1">
       <c r="A66" s="29">
         <v>61</v>
       </c>
@@ -1661,7 +1717,7 @@
       <c r="D66" s="45"/>
       <c r="E66" s="46"/>
     </row>
-    <row r="67" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="24" customHeight="1">
       <c r="A67" s="29">
         <v>62</v>
       </c>
@@ -1670,7 +1726,7 @@
       <c r="D67" s="45"/>
       <c r="E67" s="46"/>
     </row>
-    <row r="68" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" ht="24" customHeight="1" thickBot="1">
       <c r="A68" s="48">
         <v>63</v>
       </c>
@@ -1679,16 +1735,16 @@
       <c r="D68" s="51"/>
       <c r="E68" s="52"/>
     </row>
-    <row r="70" spans="1:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="49.5" customHeight="1" thickBot="1">
       <c r="A70" s="63" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B70" s="64"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
     </row>
-    <row r="71" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="24" customHeight="1" thickBot="1">
       <c r="A71" s="3" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="24" customHeight="1">
       <c r="A72" s="54">
         <v>1</v>
       </c>
@@ -1714,7 +1770,7 @@
       <c r="D72" s="57"/>
       <c r="E72" s="58"/>
     </row>
-    <row r="73" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="24" customHeight="1">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -1723,7 +1779,7 @@
       <c r="D73" s="10"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="24" customHeight="1">
       <c r="A74" s="2">
         <v>3</v>
       </c>
@@ -1732,7 +1788,7 @@
       <c r="D74" s="11"/>
       <c r="E74" s="9"/>
     </row>
-    <row r="75" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="24" customHeight="1">
       <c r="A75" s="2">
         <v>4</v>
       </c>
@@ -1741,7 +1797,7 @@
       <c r="D75" s="11"/>
       <c r="E75" s="9"/>
     </row>
-    <row r="76" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="24" customHeight="1">
       <c r="A76" s="1">
         <v>5</v>
       </c>
@@ -1750,7 +1806,7 @@
       <c r="D76" s="10"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="24" customHeight="1">
       <c r="A77" s="1">
         <v>6</v>
       </c>
@@ -1759,7 +1815,7 @@
       <c r="D77" s="10"/>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="24" customHeight="1">
       <c r="A78" s="2">
         <v>7</v>
       </c>
@@ -1768,7 +1824,7 @@
       <c r="D78" s="11"/>
       <c r="E78" s="9"/>
     </row>
-    <row r="79" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="24" customHeight="1">
       <c r="A79" s="2">
         <v>8</v>
       </c>
@@ -1777,7 +1833,7 @@
       <c r="D79" s="11"/>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="24" customHeight="1">
       <c r="A80" s="1">
         <v>9</v>
       </c>
@@ -1786,7 +1842,7 @@
       <c r="D80" s="10"/>
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="24" customHeight="1">
       <c r="A81" s="1">
         <v>10</v>
       </c>
@@ -1795,7 +1851,7 @@
       <c r="D81" s="10"/>
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="24" customHeight="1">
       <c r="A82" s="2">
         <v>11</v>
       </c>
@@ -1804,7 +1860,7 @@
       <c r="D82" s="11"/>
       <c r="E82" s="9"/>
     </row>
-    <row r="83" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="24" customHeight="1">
       <c r="A83" s="2">
         <v>12</v>
       </c>
@@ -1813,7 +1869,7 @@
       <c r="D83" s="11"/>
       <c r="E83" s="9"/>
     </row>
-    <row r="84" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="24" customHeight="1">
       <c r="A84" s="1">
         <v>13</v>
       </c>
@@ -1822,7 +1878,7 @@
       <c r="D84" s="10"/>
       <c r="E84" s="8"/>
     </row>
-    <row r="85" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="24" customHeight="1">
       <c r="A85" s="1">
         <v>14</v>
       </c>
@@ -1831,7 +1887,7 @@
       <c r="D85" s="10"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="24" customHeight="1">
       <c r="A86" s="2">
         <v>15</v>
       </c>
@@ -1840,7 +1896,7 @@
       <c r="D86" s="11"/>
       <c r="E86" s="9"/>
     </row>
-    <row r="87" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="24" customHeight="1">
       <c r="A87" s="2">
         <v>16</v>
       </c>
@@ -1849,7 +1905,7 @@
       <c r="D87" s="11"/>
       <c r="E87" s="9"/>
     </row>
-    <row r="88" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="24" customHeight="1">
       <c r="A88" s="1">
         <v>17</v>
       </c>
@@ -1858,7 +1914,7 @@
       <c r="D88" s="10"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="24" customHeight="1">
       <c r="A89" s="1">
         <v>18</v>
       </c>
@@ -1867,7 +1923,7 @@
       <c r="D89" s="10"/>
       <c r="E89" s="8"/>
     </row>
-    <row r="90" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="24" customHeight="1">
       <c r="A90" s="2">
         <v>19</v>
       </c>
@@ -1876,7 +1932,7 @@
       <c r="D90" s="11"/>
       <c r="E90" s="9"/>
     </row>
-    <row r="91" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="24" customHeight="1">
       <c r="A91" s="2">
         <v>20</v>
       </c>
@@ -1885,7 +1941,7 @@
       <c r="D91" s="11"/>
       <c r="E91" s="9"/>
     </row>
-    <row r="92" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="24" customHeight="1">
       <c r="A92" s="1">
         <v>21</v>
       </c>
@@ -1894,7 +1950,7 @@
       <c r="D92" s="10"/>
       <c r="E92" s="8"/>
     </row>
-    <row r="93" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="24" customHeight="1">
       <c r="A93" s="1">
         <v>22</v>
       </c>
@@ -1903,7 +1959,7 @@
       <c r="D93" s="10"/>
       <c r="E93" s="8"/>
     </row>
-    <row r="94" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="24" customHeight="1">
       <c r="A94" s="2">
         <v>23</v>
       </c>
@@ -1912,7 +1968,7 @@
       <c r="D94" s="11"/>
       <c r="E94" s="9"/>
     </row>
-    <row r="95" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="24" customHeight="1">
       <c r="A95" s="2">
         <v>24</v>
       </c>
@@ -1921,7 +1977,7 @@
       <c r="D95" s="11"/>
       <c r="E95" s="9"/>
     </row>
-    <row r="96" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="24" customHeight="1">
       <c r="A96" s="1">
         <v>25</v>
       </c>
@@ -1930,7 +1986,7 @@
       <c r="D96" s="10"/>
       <c r="E96" s="8"/>
     </row>
-    <row r="97" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="24" customHeight="1">
       <c r="A97" s="1">
         <v>26</v>
       </c>
@@ -1939,7 +1995,7 @@
       <c r="D97" s="10"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="24" customHeight="1">
       <c r="A98" s="2">
         <v>27</v>
       </c>
@@ -1948,7 +2004,7 @@
       <c r="D98" s="11"/>
       <c r="E98" s="9"/>
     </row>
-    <row r="99" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="24" customHeight="1">
       <c r="A99" s="2">
         <v>28</v>
       </c>
@@ -1957,7 +2013,7 @@
       <c r="D99" s="11"/>
       <c r="E99" s="9"/>
     </row>
-    <row r="100" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="24" customHeight="1">
       <c r="A100" s="1">
         <v>29</v>
       </c>
@@ -1966,7 +2022,7 @@
       <c r="D100" s="10"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="24" customHeight="1">
       <c r="A101" s="1">
         <v>30</v>
       </c>
@@ -1975,7 +2031,7 @@
       <c r="D101" s="10"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="24" customHeight="1">
       <c r="A102" s="2">
         <v>31</v>
       </c>
@@ -1984,7 +2040,7 @@
       <c r="D102" s="11"/>
       <c r="E102" s="9"/>
     </row>
-    <row r="103" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="24" customHeight="1">
       <c r="A103" s="2">
         <v>32</v>
       </c>
@@ -1993,7 +2049,7 @@
       <c r="D103" s="11"/>
       <c r="E103" s="9"/>
     </row>
-    <row r="104" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="24" customHeight="1">
       <c r="A104" s="1">
         <v>33</v>
       </c>
@@ -2002,7 +2058,7 @@
       <c r="D104" s="10"/>
       <c r="E104" s="8"/>
     </row>
-    <row r="105" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="24" customHeight="1">
       <c r="A105" s="1">
         <v>34</v>
       </c>
@@ -2011,7 +2067,7 @@
       <c r="D105" s="10"/>
       <c r="E105" s="8"/>
     </row>
-    <row r="106" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="24" customHeight="1">
       <c r="A106" s="2">
         <v>35</v>
       </c>
@@ -2020,7 +2076,7 @@
       <c r="D106" s="11"/>
       <c r="E106" s="9"/>
     </row>
-    <row r="107" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="24" customHeight="1">
       <c r="A107" s="2">
         <v>36</v>
       </c>
@@ -2029,7 +2085,7 @@
       <c r="D107" s="11"/>
       <c r="E107" s="9"/>
     </row>
-    <row r="108" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="24" customHeight="1">
       <c r="A108" s="1">
         <v>37</v>
       </c>
@@ -2038,7 +2094,7 @@
       <c r="D108" s="10"/>
       <c r="E108" s="8"/>
     </row>
-    <row r="109" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="24" customHeight="1">
       <c r="A109" s="1">
         <v>38</v>
       </c>
@@ -2047,7 +2103,7 @@
       <c r="D109" s="10"/>
       <c r="E109" s="8"/>
     </row>
-    <row r="110" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="24" customHeight="1">
       <c r="A110" s="2">
         <v>39</v>
       </c>
@@ -2056,7 +2112,7 @@
       <c r="D110" s="11"/>
       <c r="E110" s="9"/>
     </row>
-    <row r="111" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="24" customHeight="1">
       <c r="A111" s="2">
         <v>40</v>
       </c>
@@ -2065,7 +2121,7 @@
       <c r="D111" s="11"/>
       <c r="E111" s="9"/>
     </row>
-    <row r="112" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="24" customHeight="1">
       <c r="A112" s="1">
         <v>41</v>
       </c>
@@ -2074,7 +2130,7 @@
       <c r="D112" s="10"/>
       <c r="E112" s="8"/>
     </row>
-    <row r="113" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="24" customHeight="1">
       <c r="A113" s="1">
         <v>42</v>
       </c>
@@ -2083,7 +2139,7 @@
       <c r="D113" s="10"/>
       <c r="E113" s="8"/>
     </row>
-    <row r="114" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="24" customHeight="1">
       <c r="A114" s="2">
         <v>43</v>
       </c>
@@ -2092,7 +2148,7 @@
       <c r="D114" s="11"/>
       <c r="E114" s="9"/>
     </row>
-    <row r="115" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="24" customHeight="1">
       <c r="A115" s="2">
         <v>44</v>
       </c>
@@ -2101,7 +2157,7 @@
       <c r="D115" s="11"/>
       <c r="E115" s="9"/>
     </row>
-    <row r="116" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="24" customHeight="1">
       <c r="A116" s="1">
         <v>45</v>
       </c>
@@ -2110,7 +2166,7 @@
       <c r="D116" s="10"/>
       <c r="E116" s="8"/>
     </row>
-    <row r="117" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="24" customHeight="1">
       <c r="A117" s="1">
         <v>46</v>
       </c>
@@ -2119,7 +2175,7 @@
       <c r="D117" s="10"/>
       <c r="E117" s="8"/>
     </row>
-    <row r="118" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="24" customHeight="1">
       <c r="A118" s="2">
         <v>47</v>
       </c>
@@ -2128,7 +2184,7 @@
       <c r="D118" s="11"/>
       <c r="E118" s="9"/>
     </row>
-    <row r="119" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="24" customHeight="1">
       <c r="A119" s="2">
         <v>48</v>
       </c>
@@ -2137,7 +2193,7 @@
       <c r="D119" s="11"/>
       <c r="E119" s="9"/>
     </row>
-    <row r="120" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="24" customHeight="1">
       <c r="A120" s="1">
         <v>49</v>
       </c>
@@ -2146,7 +2202,7 @@
       <c r="D120" s="10"/>
       <c r="E120" s="8"/>
     </row>
-    <row r="121" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="24" customHeight="1">
       <c r="A121" s="1">
         <v>50</v>
       </c>
@@ -2155,7 +2211,7 @@
       <c r="D121" s="10"/>
       <c r="E121" s="8"/>
     </row>
-    <row r="122" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="24" customHeight="1">
       <c r="A122" s="2">
         <v>51</v>
       </c>
@@ -2164,7 +2220,7 @@
       <c r="D122" s="11"/>
       <c r="E122" s="9"/>
     </row>
-    <row r="123" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="24" customHeight="1">
       <c r="A123" s="2">
         <v>52</v>
       </c>
@@ -2173,7 +2229,7 @@
       <c r="D123" s="11"/>
       <c r="E123" s="9"/>
     </row>
-    <row r="124" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="24" customHeight="1">
       <c r="A124" s="1">
         <v>53</v>
       </c>
@@ -2182,7 +2238,7 @@
       <c r="D124" s="10"/>
       <c r="E124" s="8"/>
     </row>
-    <row r="125" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="24" customHeight="1">
       <c r="A125" s="1">
         <v>54</v>
       </c>
@@ -2191,7 +2247,7 @@
       <c r="D125" s="10"/>
       <c r="E125" s="8"/>
     </row>
-    <row r="126" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="24" customHeight="1">
       <c r="A126" s="2">
         <v>55</v>
       </c>
@@ -2200,7 +2256,7 @@
       <c r="D126" s="11"/>
       <c r="E126" s="9"/>
     </row>
-    <row r="127" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="24" customHeight="1">
       <c r="A127" s="2">
         <v>56</v>
       </c>
@@ -2209,7 +2265,7 @@
       <c r="D127" s="11"/>
       <c r="E127" s="9"/>
     </row>
-    <row r="128" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="24" customHeight="1">
       <c r="A128" s="1">
         <v>57</v>
       </c>
@@ -2218,7 +2274,7 @@
       <c r="D128" s="10"/>
       <c r="E128" s="8"/>
     </row>
-    <row r="129" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="24" customHeight="1">
       <c r="A129" s="1">
         <v>58</v>
       </c>
@@ -2227,7 +2283,7 @@
       <c r="D129" s="10"/>
       <c r="E129" s="8"/>
     </row>
-    <row r="130" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="24" customHeight="1">
       <c r="A130" s="2">
         <v>59</v>
       </c>
@@ -2236,7 +2292,7 @@
       <c r="D130" s="11"/>
       <c r="E130" s="9"/>
     </row>
-    <row r="131" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="24" customHeight="1">
       <c r="A131" s="2">
         <v>60</v>
       </c>
@@ -2245,7 +2301,7 @@
       <c r="D131" s="11"/>
       <c r="E131" s="9"/>
     </row>
-    <row r="132" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="24" customHeight="1">
       <c r="A132" s="1">
         <v>61</v>
       </c>
@@ -2254,7 +2310,7 @@
       <c r="D132" s="10"/>
       <c r="E132" s="8"/>
     </row>
-    <row r="133" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="24" customHeight="1">
       <c r="A133" s="1">
         <v>62</v>
       </c>
@@ -2263,7 +2319,7 @@
       <c r="D133" s="10"/>
       <c r="E133" s="8"/>
     </row>
-    <row r="134" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="24" customHeight="1">
       <c r="A134" s="2">
         <f>A133+1</f>
         <v>63</v>
@@ -2273,7 +2329,7 @@
       <c r="D134" s="11"/>
       <c r="E134" s="9"/>
     </row>
-    <row r="135" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="24" customHeight="1">
       <c r="A135" s="2">
         <f t="shared" ref="A135:A163" si="0">A134+1</f>
         <v>64</v>
@@ -2283,7 +2339,7 @@
       <c r="D135" s="11"/>
       <c r="E135" s="9"/>
     </row>
-    <row r="136" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="24" customHeight="1">
       <c r="A136" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2293,7 +2349,7 @@
       <c r="D136" s="10"/>
       <c r="E136" s="8"/>
     </row>
-    <row r="137" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="24" customHeight="1">
       <c r="A137" s="1">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2303,7 +2359,7 @@
       <c r="D137" s="10"/>
       <c r="E137" s="8"/>
     </row>
-    <row r="138" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="24" customHeight="1">
       <c r="A138" s="2">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -2313,7 +2369,7 @@
       <c r="D138" s="11"/>
       <c r="E138" s="9"/>
     </row>
-    <row r="139" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="24" customHeight="1">
       <c r="A139" s="2">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -2323,7 +2379,7 @@
       <c r="D139" s="11"/>
       <c r="E139" s="9"/>
     </row>
-    <row r="140" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="24" customHeight="1">
       <c r="A140" s="1">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -2333,7 +2389,7 @@
       <c r="D140" s="10"/>
       <c r="E140" s="8"/>
     </row>
-    <row r="141" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="24" customHeight="1">
       <c r="A141" s="1">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -2343,7 +2399,7 @@
       <c r="D141" s="10"/>
       <c r="E141" s="8"/>
     </row>
-    <row r="142" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="24" customHeight="1">
       <c r="A142" s="2">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -2353,7 +2409,7 @@
       <c r="D142" s="11"/>
       <c r="E142" s="9"/>
     </row>
-    <row r="143" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="24" customHeight="1">
       <c r="A143" s="2">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -2363,7 +2419,7 @@
       <c r="D143" s="11"/>
       <c r="E143" s="9"/>
     </row>
-    <row r="144" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="24" customHeight="1">
       <c r="A144" s="1">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -2373,7 +2429,7 @@
       <c r="D144" s="10"/>
       <c r="E144" s="8"/>
     </row>
-    <row r="145" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="24" customHeight="1">
       <c r="A145" s="1">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -2383,7 +2439,7 @@
       <c r="D145" s="10"/>
       <c r="E145" s="8"/>
     </row>
-    <row r="146" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="24" customHeight="1">
       <c r="A146" s="2">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -2393,7 +2449,7 @@
       <c r="D146" s="11"/>
       <c r="E146" s="9"/>
     </row>
-    <row r="147" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="24" customHeight="1">
       <c r="A147" s="2">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -2403,7 +2459,7 @@
       <c r="D147" s="11"/>
       <c r="E147" s="9"/>
     </row>
-    <row r="148" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="24" customHeight="1">
       <c r="A148" s="1">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -2413,7 +2469,7 @@
       <c r="D148" s="10"/>
       <c r="E148" s="8"/>
     </row>
-    <row r="149" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="24" customHeight="1">
       <c r="A149" s="1">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -2423,7 +2479,7 @@
       <c r="D149" s="10"/>
       <c r="E149" s="8"/>
     </row>
-    <row r="150" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="24" customHeight="1">
       <c r="A150" s="2">
         <f t="shared" si="0"/>
         <v>79</v>
@@ -2433,7 +2489,7 @@
       <c r="D150" s="11"/>
       <c r="E150" s="9"/>
     </row>
-    <row r="151" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="24" customHeight="1">
       <c r="A151" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -2443,7 +2499,7 @@
       <c r="D151" s="11"/>
       <c r="E151" s="9"/>
     </row>
-    <row r="152" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="24" customHeight="1">
       <c r="A152" s="1">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -2453,7 +2509,7 @@
       <c r="D152" s="10"/>
       <c r="E152" s="8"/>
     </row>
-    <row r="153" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="24" customHeight="1">
       <c r="A153" s="1">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -2463,7 +2519,7 @@
       <c r="D153" s="10"/>
       <c r="E153" s="8"/>
     </row>
-    <row r="154" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="24" customHeight="1">
       <c r="A154" s="2">
         <f t="shared" si="0"/>
         <v>83</v>
@@ -2473,7 +2529,7 @@
       <c r="D154" s="11"/>
       <c r="E154" s="9"/>
     </row>
-    <row r="155" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="24" customHeight="1">
       <c r="A155" s="2">
         <f t="shared" si="0"/>
         <v>84</v>
@@ -2483,7 +2539,7 @@
       <c r="D155" s="11"/>
       <c r="E155" s="9"/>
     </row>
-    <row r="156" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="24" customHeight="1">
       <c r="A156" s="1">
         <f t="shared" si="0"/>
         <v>85</v>
@@ -2493,7 +2549,7 @@
       <c r="D156" s="10"/>
       <c r="E156" s="8"/>
     </row>
-    <row r="157" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="24" customHeight="1">
       <c r="A157" s="1">
         <f t="shared" si="0"/>
         <v>86</v>
@@ -2503,7 +2559,7 @@
       <c r="D157" s="10"/>
       <c r="E157" s="8"/>
     </row>
-    <row r="158" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="24" customHeight="1">
       <c r="A158" s="2">
         <f t="shared" si="0"/>
         <v>87</v>
@@ -2513,7 +2569,7 @@
       <c r="D158" s="11"/>
       <c r="E158" s="9"/>
     </row>
-    <row r="159" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="24" customHeight="1">
       <c r="A159" s="2">
         <f t="shared" si="0"/>
         <v>88</v>
@@ -2523,7 +2579,7 @@
       <c r="D159" s="11"/>
       <c r="E159" s="9"/>
     </row>
-    <row r="160" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="24" customHeight="1">
       <c r="A160" s="1">
         <f t="shared" si="0"/>
         <v>89</v>
@@ -2533,7 +2589,7 @@
       <c r="D160" s="10"/>
       <c r="E160" s="8"/>
     </row>
-    <row r="161" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="24" customHeight="1">
       <c r="A161" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -2543,7 +2599,7 @@
       <c r="D161" s="10"/>
       <c r="E161" s="8"/>
     </row>
-    <row r="162" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="24" customHeight="1">
       <c r="A162" s="2">
         <f t="shared" si="0"/>
         <v>91</v>
@@ -2553,7 +2609,7 @@
       <c r="D162" s="11"/>
       <c r="E162" s="9"/>
     </row>
-    <row r="163" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" ht="24" customHeight="1" thickBot="1">
       <c r="A163" s="16">
         <f t="shared" si="0"/>
         <v>92</v>
